--- a/pandas_demo/test.xlsx
+++ b/pandas_demo/test.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -489,16 +489,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
         <v>97</v>
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
         <v>80</v>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F5" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C6" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
+        <v>86</v>
+      </c>
+      <c r="F7" t="n">
         <v>98</v>
-      </c>
-      <c r="F7" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>85</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F9" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C11" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
